--- a/combined.xlsx
+++ b/combined.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayushmaan\Desktop\tt\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBEB42E-8B71-41BF-A600-B43CE18AE12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -586,16 +595,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Aptos Narrow&quot;"/>
     </font>
@@ -605,42 +614,48 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -830,26 +845,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="33.38"/>
-    <col customWidth="1" min="4" max="4" width="78.63"/>
-    <col customWidth="1" min="10" max="10" width="66.13"/>
-    <col customWidth="1" min="11" max="11" width="31.38"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="78.6640625" customWidth="1"/>
+    <col min="10" max="10" width="66.109375" customWidth="1"/>
+    <col min="11" max="11" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -883,11 +903,12 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -901,19 +922,19 @@
         <v>15</v>
       </c>
       <c r="E2" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>16</v>
@@ -921,10 +942,10 @@
       <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3">
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -938,19 +959,19 @@
         <v>19</v>
       </c>
       <c r="E3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>20</v>
@@ -958,10 +979,10 @@
       <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -975,19 +996,19 @@
         <v>23</v>
       </c>
       <c r="E4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>24</v>
@@ -995,10 +1016,10 @@
       <c r="K4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1012,19 +1033,19 @@
         <v>26</v>
       </c>
       <c r="E5" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>27</v>
@@ -1032,10 +1053,10 @@
       <c r="K5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1049,29 +1070,30 @@
         <v>29</v>
       </c>
       <c r="E6" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7">
+      <c r="L6" s="4"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1085,29 +1107,30 @@
         <v>33</v>
       </c>
       <c r="E7" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8">
+      <c r="L7" s="4"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1121,29 +1144,30 @@
         <v>37</v>
       </c>
       <c r="E8" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9">
+      <c r="L8" s="4"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1157,19 +1181,19 @@
         <v>15</v>
       </c>
       <c r="E9" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>16</v>
@@ -1177,10 +1201,10 @@
       <c r="K9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1194,19 +1218,19 @@
         <v>19</v>
       </c>
       <c r="E10" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>41</v>
@@ -1214,10 +1238,10 @@
       <c r="K10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1231,19 +1255,19 @@
         <v>23</v>
       </c>
       <c r="E11" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>20</v>
@@ -1251,10 +1275,10 @@
       <c r="K11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1268,19 +1292,19 @@
         <v>26</v>
       </c>
       <c r="E12" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>27</v>
@@ -1288,10 +1312,10 @@
       <c r="K12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13">
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1305,29 +1329,30 @@
         <v>29</v>
       </c>
       <c r="E13" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14">
+      <c r="L13" s="4"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1341,29 +1366,30 @@
         <v>33</v>
       </c>
       <c r="E14" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15">
+      <c r="L14" s="4"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1377,29 +1403,30 @@
         <v>37</v>
       </c>
       <c r="E15" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16">
+      <c r="L15" s="4"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1413,19 +1440,19 @@
         <v>45</v>
       </c>
       <c r="E16" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>46</v>
@@ -1433,10 +1460,10 @@
       <c r="K16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17">
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1450,19 +1477,19 @@
         <v>49</v>
       </c>
       <c r="E17" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>50</v>
@@ -1470,10 +1497,10 @@
       <c r="K17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18">
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1487,19 +1514,19 @@
         <v>52</v>
       </c>
       <c r="E18" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2">
-        <v>0.0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>53</v>
@@ -1507,10 +1534,10 @@
       <c r="K18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -1524,19 +1551,19 @@
         <v>55</v>
       </c>
       <c r="E19" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>56</v>
@@ -1544,10 +1571,10 @@
       <c r="K19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20">
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -1561,19 +1588,19 @@
         <v>58</v>
       </c>
       <c r="E20" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>59</v>
@@ -1581,10 +1608,10 @@
       <c r="K20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21">
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1598,19 +1625,19 @@
         <v>61</v>
       </c>
       <c r="E21" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>62</v>
@@ -1618,10 +1645,10 @@
       <c r="K21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22">
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -1635,19 +1662,19 @@
         <v>45</v>
       </c>
       <c r="E22" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>46</v>
@@ -1655,10 +1682,10 @@
       <c r="K22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23">
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -1672,19 +1699,19 @@
         <v>49</v>
       </c>
       <c r="E23" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F23" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>65</v>
@@ -1692,10 +1719,10 @@
       <c r="K23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24">
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -1709,19 +1736,19 @@
         <v>52</v>
       </c>
       <c r="E24" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F24" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="2">
-        <v>0.0</v>
+        <v>2</v>
       </c>
       <c r="H24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>66</v>
@@ -1729,10 +1756,10 @@
       <c r="K24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25">
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
@@ -1746,19 +1773,19 @@
         <v>55</v>
       </c>
       <c r="E25" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F25" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>67</v>
@@ -1766,10 +1793,10 @@
       <c r="K25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26">
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -1783,19 +1810,19 @@
         <v>58</v>
       </c>
       <c r="E26" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F26" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>68</v>
@@ -1803,10 +1830,10 @@
       <c r="K26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27">
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -1820,19 +1847,19 @@
         <v>61</v>
       </c>
       <c r="E27" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>62</v>
@@ -1840,10 +1867,10 @@
       <c r="K27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28">
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
@@ -1857,19 +1884,19 @@
         <v>71</v>
       </c>
       <c r="E28" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>72</v>
@@ -1877,10 +1904,10 @@
       <c r="K28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29">
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
@@ -1894,28 +1921,30 @@
         <v>74</v>
       </c>
       <c r="E29" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F29" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="30">
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -1929,28 +1958,30 @@
         <v>77</v>
       </c>
       <c r="E30" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F30" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="31">
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -1964,29 +1995,30 @@
         <v>81</v>
       </c>
       <c r="E31" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F31" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I31" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32">
+      <c r="L31" s="4"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -2000,28 +2032,30 @@
         <v>85</v>
       </c>
       <c r="E32" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F32" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H32" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="33">
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
@@ -2035,19 +2069,19 @@
         <v>88</v>
       </c>
       <c r="E33" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F33" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G33" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H33" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I33" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>89</v>
@@ -2055,10 +2089,10 @@
       <c r="K33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34">
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
@@ -2072,19 +2106,19 @@
         <v>71</v>
       </c>
       <c r="E34" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F34" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G34" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H34" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I34" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>92</v>
@@ -2092,10 +2126,10 @@
       <c r="K34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35">
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
@@ -2109,28 +2143,30 @@
         <v>74</v>
       </c>
       <c r="E35" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F35" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H35" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I35" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="36">
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
@@ -2144,28 +2180,30 @@
         <v>77</v>
       </c>
       <c r="E36" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F36" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H36" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I36" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K36" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="37">
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
@@ -2179,29 +2217,30 @@
         <v>81</v>
       </c>
       <c r="E37" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F37" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H37" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I37" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K37" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="M37" s="3"/>
-    </row>
-    <row r="38">
+      <c r="L37" s="4"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
         <v>12</v>
       </c>
@@ -2215,28 +2254,30 @@
         <v>85</v>
       </c>
       <c r="E38" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F38" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H38" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I38" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="39">
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
@@ -2250,19 +2291,19 @@
         <v>88</v>
       </c>
       <c r="E39" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F39" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G39" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H39" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I39" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>89</v>
@@ -2270,15 +2311,15 @@
       <c r="K39" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-    </row>
-    <row r="40">
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>94</v>
@@ -2287,19 +2328,19 @@
         <v>95</v>
       </c>
       <c r="E40" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F40" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G40" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H40" s="2">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="I40" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>96</v>
@@ -2307,15 +2348,15 @@
       <c r="K40" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-    </row>
-    <row r="41">
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B41" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>98</v>
@@ -2324,19 +2365,19 @@
         <v>45</v>
       </c>
       <c r="E41" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F41" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H41" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I41" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>99</v>
@@ -2344,15 +2385,15 @@
       <c r="K41" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42">
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B42" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>14</v>
@@ -2361,33 +2402,35 @@
         <v>15</v>
       </c>
       <c r="E42" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F42" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H42" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I42" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="K42" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="43">
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B43" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>18</v>
@@ -2396,33 +2439,35 @@
         <v>23</v>
       </c>
       <c r="E43" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F43" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H43" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I43" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K43" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="44">
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B44" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>104</v>
@@ -2431,19 +2476,19 @@
         <v>105</v>
       </c>
       <c r="E44" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F44" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G44" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H44" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I44" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>106</v>
@@ -2451,15 +2496,15 @@
       <c r="K44" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45">
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B45" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>22</v>
@@ -2468,19 +2513,19 @@
         <v>19</v>
       </c>
       <c r="E45" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F45" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G45" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H45" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I45" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>107</v>
@@ -2488,15 +2533,15 @@
       <c r="K45" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46">
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B46" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>108</v>
@@ -2505,19 +2550,19 @@
         <v>109</v>
       </c>
       <c r="E46" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F46" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G46" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H46" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I46" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>110</v>
@@ -2525,15 +2570,15 @@
       <c r="K46" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47">
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B47" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>112</v>
@@ -2545,30 +2590,32 @@
         <v>1.5</v>
       </c>
       <c r="F47" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H47" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I47" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="K47" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="48">
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B48" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>116</v>
@@ -2580,30 +2627,32 @@
         <v>1.5</v>
       </c>
       <c r="F48" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G48" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H48" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I48" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="K48" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="49">
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B49" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>44</v>
@@ -2612,19 +2661,19 @@
         <v>45</v>
       </c>
       <c r="E49" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F49" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H49" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I49" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>120</v>
@@ -2632,15 +2681,15 @@
       <c r="K49" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50">
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B50" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>122</v>
@@ -2649,19 +2698,19 @@
         <v>123</v>
       </c>
       <c r="E50" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F50" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G50" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H50" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I50" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>124</v>
@@ -2669,15 +2718,15 @@
       <c r="K50" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51">
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B51" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>51</v>
@@ -2686,19 +2735,19 @@
         <v>52</v>
       </c>
       <c r="E51" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F51" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H51" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I51" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>125</v>
@@ -2706,15 +2755,15 @@
       <c r="K51" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52">
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B52" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>126</v>
@@ -2723,19 +2772,19 @@
         <v>127</v>
       </c>
       <c r="E52" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F52" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G52" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H52" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I52" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>128</v>
@@ -2743,15 +2792,15 @@
       <c r="K52" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53">
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B53" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>57</v>
@@ -2760,19 +2809,19 @@
         <v>129</v>
       </c>
       <c r="E53" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F53" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H53" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I53" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>130</v>
@@ -2780,15 +2829,15 @@
       <c r="K53" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54">
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B54" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>131</v>
@@ -2797,19 +2846,19 @@
         <v>132</v>
       </c>
       <c r="E54" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F54" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G54" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H54" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I54" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>133</v>
@@ -2817,15 +2866,15 @@
       <c r="K54" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55">
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B55" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>134</v>
@@ -2834,19 +2883,19 @@
         <v>135</v>
       </c>
       <c r="E55" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F55" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G55" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H55" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I55" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>128</v>
@@ -2857,14 +2906,14 @@
       <c r="L55" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M55" s="3"/>
-    </row>
-    <row r="56">
+      <c r="M55" s="1"/>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B56" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>137</v>
@@ -2873,19 +2922,19 @@
         <v>138</v>
       </c>
       <c r="E56" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F56" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G56" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H56" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I56" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>139</v>
@@ -2896,14 +2945,14 @@
       <c r="L56" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M56" s="3"/>
-    </row>
-    <row r="57">
+      <c r="M56" s="1"/>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B57" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>140</v>
@@ -2912,19 +2961,19 @@
         <v>141</v>
       </c>
       <c r="E57" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F57" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H57" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I57" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>142</v>
@@ -2935,14 +2984,14 @@
       <c r="L57" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58">
+      <c r="M57" s="1"/>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B58" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>143</v>
@@ -2951,19 +3000,19 @@
         <v>144</v>
       </c>
       <c r="E58" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F58" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H58" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I58" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>145</v>
@@ -2974,14 +3023,14 @@
       <c r="L58" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59">
+      <c r="M58" s="1"/>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B59" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>146</v>
@@ -2990,19 +3039,19 @@
         <v>147</v>
       </c>
       <c r="E59" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F59" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G59" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H59" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I59" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>148</v>
@@ -3013,14 +3062,14 @@
       <c r="L59" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60">
+      <c r="M59" s="1"/>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B60" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>149</v>
@@ -3029,19 +3078,19 @@
         <v>150</v>
       </c>
       <c r="E60" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F60" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G60" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H60" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I60" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>90</v>
@@ -3052,14 +3101,14 @@
       <c r="L60" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61">
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B61" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>32</v>
@@ -3068,33 +3117,35 @@
         <v>151</v>
       </c>
       <c r="E61" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F61" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G61" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H61" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I61" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="K61" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="62">
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B62" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>36</v>
@@ -3103,33 +3154,35 @@
         <v>77</v>
       </c>
       <c r="E62" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F62" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G62" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H62" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I62" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K62" s="1" t="s">
+      <c r="K62" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="63">
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B63" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>90</v>
@@ -3138,19 +3191,19 @@
         <v>45</v>
       </c>
       <c r="E63" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F63" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H63" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I63" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>156</v>
@@ -3158,15 +3211,15 @@
       <c r="K63" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64">
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B64" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>90</v>
@@ -3175,33 +3228,35 @@
         <v>15</v>
       </c>
       <c r="E64" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F64" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H64" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I64" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="K64" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="65">
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B65" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>90</v>
@@ -3210,33 +3265,35 @@
         <v>23</v>
       </c>
       <c r="E65" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F65" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H65" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I65" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="K65" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="66">
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B66" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>90</v>
@@ -3245,34 +3302,35 @@
         <v>159</v>
       </c>
       <c r="E66" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F66" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G66" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H66" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I66" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K66" s="1" t="s">
+      <c r="K66" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67">
+      <c r="L66" s="4"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B67" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>90</v>
@@ -3281,19 +3339,19 @@
         <v>162</v>
       </c>
       <c r="E67" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F67" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G67" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H67" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I67" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>24</v>
@@ -3301,15 +3359,15 @@
       <c r="K67" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-    </row>
-    <row r="68">
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B68" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>90</v>
@@ -3318,19 +3376,19 @@
         <v>163</v>
       </c>
       <c r="E68" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F68" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H68" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I68" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>99</v>
@@ -3338,15 +3396,15 @@
       <c r="K68" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69">
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B69" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>112</v>
@@ -3358,30 +3416,32 @@
         <v>1.5</v>
       </c>
       <c r="F69" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H69" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I69" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K69" s="1" t="s">
+      <c r="K69" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="70">
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B70" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>116</v>
@@ -3393,30 +3453,32 @@
         <v>1.5</v>
       </c>
       <c r="F70" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G70" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H70" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I70" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K70" s="1" t="s">
+      <c r="K70" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="71">
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B71" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>164</v>
@@ -3425,19 +3487,19 @@
         <v>165</v>
       </c>
       <c r="E71" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F71" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H71" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I71" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>166</v>
@@ -3445,15 +3507,15 @@
       <c r="K71" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72">
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B72" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>168</v>
@@ -3462,19 +3524,19 @@
         <v>169</v>
       </c>
       <c r="E72" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F72" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G72" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H72" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I72" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>170</v>
@@ -3482,15 +3544,15 @@
       <c r="K72" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73">
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B73" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>171</v>
@@ -3499,19 +3561,19 @@
         <v>172</v>
       </c>
       <c r="E73" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F73" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G73" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H73" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I73" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>173</v>
@@ -3519,15 +3581,15 @@
       <c r="K73" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74">
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B74" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>174</v>
@@ -3536,19 +3598,19 @@
         <v>175</v>
       </c>
       <c r="E74" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F74" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H74" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I74" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>176</v>
@@ -3556,15 +3618,15 @@
       <c r="K74" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75">
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B75" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>177</v>
@@ -3573,19 +3635,19 @@
         <v>178</v>
       </c>
       <c r="E75" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F75" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G75" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H75" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I75" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>179</v>
@@ -3593,15 +3655,15 @@
       <c r="K75" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76">
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B76" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>60</v>
@@ -3610,19 +3672,19 @@
         <v>61</v>
       </c>
       <c r="E76" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F76" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G76" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H76" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I76" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>180</v>
@@ -3630,15 +3692,15 @@
       <c r="K76" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77">
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B77" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>70</v>
@@ -3647,19 +3709,19 @@
         <v>71</v>
       </c>
       <c r="E77" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F77" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G77" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H77" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I77" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>72</v>
@@ -3667,15 +3729,15 @@
       <c r="K77" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="78">
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B78" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>32</v>
@@ -3684,33 +3746,35 @@
         <v>182</v>
       </c>
       <c r="E78" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F78" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G78" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H78" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I78" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K78" s="1" t="s">
+      <c r="K78" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="79">
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B79" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>36</v>
@@ -3719,33 +3783,35 @@
         <v>77</v>
       </c>
       <c r="E79" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F79" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G79" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H79" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I79" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K79" s="1" t="s">
+      <c r="K79" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="80">
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B80" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>80</v>
@@ -3754,34 +3820,35 @@
         <v>81</v>
       </c>
       <c r="E80" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F80" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G80" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H80" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I80" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K80" s="1" t="s">
+      <c r="K80" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="M80" s="3"/>
-    </row>
-    <row r="81">
+      <c r="L80" s="4"/>
+      <c r="M80" s="1"/>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B81" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>84</v>
@@ -3790,33 +3857,35 @@
         <v>85</v>
       </c>
       <c r="E81" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F81" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G81" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H81" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I81" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="K81" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="82">
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B82" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>88</v>
@@ -3825,19 +3894,19 @@
         <v>88</v>
       </c>
       <c r="E82" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F82" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G82" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H82" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I82" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>187</v>
@@ -3845,15 +3914,15 @@
       <c r="K82" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-    </row>
-    <row r="83">
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B83" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>188</v>
@@ -3862,19 +3931,19 @@
         <v>189</v>
       </c>
       <c r="E83" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F83" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G83" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H83" s="2">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="I83" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>90</v>
@@ -3882,196 +3951,176 @@
       <c r="K83" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="K61:M61"/>
     <mergeCell ref="K62:M62"/>
     <mergeCell ref="K80:L80"/>
     <mergeCell ref="K81:M81"/>
@@ -4082,7 +4131,27 @@
     <mergeCell ref="K70:M70"/>
     <mergeCell ref="K78:M78"/>
     <mergeCell ref="K79:M79"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K13:L13"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>